--- a/results/I1_R2_mean_res.xlsx
+++ b/results/I1_R2_mean_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9429.190124831784</v>
+        <v>9767.34399999997</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>300.0460000038147</v>
+        <v>600.0350000858307</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.9907461238811736</v>
+        <v>0.9965222157870816</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13179.5777262049</v>
+        <v>12842.989</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7742.841011581395</v>
+        <v>6665.687</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1148.54</v>
+        <v>570.0419999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1793.913410208283</v>
+        <v>1859.999999999969</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1050</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +567,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.9999991341024163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1200</v>
+        <v>1246.668626000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1261.219956</v>
+        <v>1185.424506000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>960</v>
+        <v>960.0000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -968,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1145.007078</v>
+        <v>1261.001666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1335.542393999988</v>
+        <v>1310.768218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -984,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1269.422105999988</v>
+        <v>1377.836532</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1378.626786</v>
+        <v>1124.201922000001</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1205.308591999996</v>
+        <v>1377.70292</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1084.005412</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1072,24 +1072,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9999991389225243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>94.8</v>
+        <v>413.9999999999987</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>182.2</v>
+        <v>319.1999999999987</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>59.2</v>
+        <v>44.39999999999984</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>303.6</v>
+        <v>193.8000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>579.4</v>
+        <v>503.7999999999977</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>489.6</v>
+        <v>585.9999999999969</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>163</v>
+        <v>148.1999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>315.2</v>
+        <v>256.5999999999988</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>407.4</v>
+        <v>297.6000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>243</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>315.2</v>
+        <v>585.9999999999969</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>579.3913410208282</v>
+        <v>297.6000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>185.9999999999969</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>179.3913410208283</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>26.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
